--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H2">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I2">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J2">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N2">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P2">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q2">
-        <v>48.26683461695648</v>
+        <v>119.250382427649</v>
       </c>
       <c r="R2">
-        <v>48.26683461695648</v>
+        <v>1073.253441848841</v>
       </c>
       <c r="S2">
-        <v>0.04780217747682126</v>
+        <v>0.07020170683110757</v>
       </c>
       <c r="T2">
-        <v>0.04780217747682126</v>
+        <v>0.07020170683110757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H3">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I3">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J3">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N3">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P3">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q3">
-        <v>79.10638596557773</v>
+        <v>111.034053879309</v>
       </c>
       <c r="R3">
-        <v>79.10638596557773</v>
+        <v>999.306484913781</v>
       </c>
       <c r="S3">
-        <v>0.07834484136956468</v>
+        <v>0.06536482265315889</v>
       </c>
       <c r="T3">
-        <v>0.07834484136956468</v>
+        <v>0.06536482265315888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.159604303528</v>
+        <v>136.287657</v>
       </c>
       <c r="H4">
-        <v>106.159604303528</v>
+        <v>408.862971</v>
       </c>
       <c r="I4">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="J4">
-        <v>0.2245001407857579</v>
+        <v>0.2628768458810872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N4">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P4">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q4">
-        <v>99.30915538336896</v>
+        <v>216.259754963373</v>
       </c>
       <c r="R4">
-        <v>99.30915538336896</v>
+        <v>1946.337794670357</v>
       </c>
       <c r="S4">
-        <v>0.098353121939372</v>
+        <v>0.1273103163968207</v>
       </c>
       <c r="T4">
-        <v>0.098353121939372</v>
+        <v>0.1273103163968207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H5">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J5">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N5">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P5">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q5">
-        <v>64.91467598800867</v>
+        <v>125.5953897046513</v>
       </c>
       <c r="R5">
-        <v>64.91467598800867</v>
+        <v>1130.358507341862</v>
       </c>
       <c r="S5">
-        <v>0.06428975272679285</v>
+        <v>0.07393695976391566</v>
       </c>
       <c r="T5">
-        <v>0.06428975272679285</v>
+        <v>0.07393695976391565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H6">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I6">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J6">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N6">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P6">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q6">
-        <v>106.391178420758</v>
+        <v>116.9418913681047</v>
       </c>
       <c r="R6">
-        <v>106.391178420758</v>
+        <v>1052.477022312942</v>
       </c>
       <c r="S6">
-        <v>0.1053669674673585</v>
+        <v>0.06884271737308476</v>
       </c>
       <c r="T6">
-        <v>0.1053669674673585</v>
+        <v>0.06884271737308474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.775393726726</v>
+        <v>143.539174</v>
       </c>
       <c r="H7">
-        <v>142.775393726726</v>
+        <v>430.617522</v>
       </c>
       <c r="I7">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="J7">
-        <v>0.3019330771123342</v>
+        <v>0.2768638492442244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N7">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P7">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q7">
-        <v>133.562138381651</v>
+        <v>227.766382372286</v>
       </c>
       <c r="R7">
-        <v>133.562138381651</v>
+        <v>2049.897441350574</v>
       </c>
       <c r="S7">
-        <v>0.1322763569181829</v>
+        <v>0.134084172107224</v>
       </c>
       <c r="T7">
-        <v>0.1322763569181829</v>
+        <v>0.134084172107224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H8">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I8">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J8">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.454662909998737</v>
+        <v>0.8749903333333333</v>
       </c>
       <c r="N8">
-        <v>0.454662909998737</v>
+        <v>2.624971</v>
       </c>
       <c r="O8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="P8">
-        <v>0.2129271603550539</v>
+        <v>0.2670516933349977</v>
       </c>
       <c r="Q8">
-        <v>101.8153907244548</v>
+        <v>208.7901577570598</v>
       </c>
       <c r="R8">
-        <v>101.8153907244548</v>
+        <v>1879.111419813538</v>
       </c>
       <c r="S8">
-        <v>0.1008352301514398</v>
+        <v>0.1229130267399745</v>
       </c>
       <c r="T8">
-        <v>0.1008352301514398</v>
+        <v>0.1229130267399745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H9">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I9">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J9">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.74516466488891</v>
+        <v>0.8147036666666666</v>
       </c>
       <c r="N9">
-        <v>0.74516466488891</v>
+        <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="P9">
-        <v>0.3489745756744523</v>
+        <v>0.2486518827250642</v>
       </c>
       <c r="Q9">
-        <v>166.8691899894199</v>
+        <v>194.4045558087175</v>
       </c>
       <c r="R9">
-        <v>166.8691899894199</v>
+        <v>1749.641002278458</v>
       </c>
       <c r="S9">
-        <v>0.1652627668375291</v>
+        <v>0.1144443426988206</v>
       </c>
       <c r="T9">
-        <v>0.1652627668375291</v>
+        <v>0.1144443426988206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>223.935994085679</v>
+        <v>238.6199593333333</v>
       </c>
       <c r="H10">
-        <v>223.935994085679</v>
+        <v>715.859878</v>
       </c>
       <c r="I10">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746885</v>
       </c>
       <c r="J10">
-        <v>0.4735667821019078</v>
+        <v>0.4602593048746884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.935470285848349</v>
+        <v>1.586789</v>
       </c>
       <c r="N10">
-        <v>0.935470285848349</v>
+        <v>4.760367</v>
       </c>
       <c r="O10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="P10">
-        <v>0.4380982639704938</v>
+        <v>0.484296423939938</v>
       </c>
       <c r="Q10">
-        <v>209.4854683990643</v>
+        <v>378.6395266505806</v>
       </c>
       <c r="R10">
-        <v>209.4854683990643</v>
+        <v>3407.755739855226</v>
       </c>
       <c r="S10">
-        <v>0.2074687851129389</v>
+        <v>0.2229019354358933</v>
       </c>
       <c r="T10">
-        <v>0.2074687851129389</v>
+        <v>0.2229019354358933</v>
       </c>
     </row>
   </sheetData>
